--- a/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-8-single-mul-multi-batch-all-sizes/experiment-8-single-mul-multi-batch-all-sizes-results.xlsx
+++ b/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-8-single-mul-multi-batch-all-sizes/experiment-8-single-mul-multi-batch-all-sizes-results.xlsx
@@ -92,12 +92,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,13 +119,11 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -134,21 +131,24 @@
       <sz val="30"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,11 +244,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,7 +268,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,7 +339,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -351,11 +355,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.390625" defaultRowHeight="36" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.64"/>
@@ -1684,6 +1688,7 @@
         <v>-56</v>
       </c>
       <c r="V30" s="5"/>
+      <c r="W30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1752,6 +1757,7 @@
         <v>-38</v>
       </c>
       <c r="V31" s="5"/>
+      <c r="W31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1820,6 +1826,7 @@
         <v>-26.9</v>
       </c>
       <c r="V32" s="5"/>
+      <c r="W32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1888,6 +1895,7 @@
         <v>-21.5</v>
       </c>
       <c r="V33" s="5"/>
+      <c r="W33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -5450,7 +5458,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="68">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="K2:K12"/>
@@ -5519,7 +5527,6 @@
     <mergeCell ref="N88:U88"/>
     <mergeCell ref="B89:B96"/>
     <mergeCell ref="M89:M96"/>
-    <mergeCell ref="97:97"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:U15">
     <cfRule type="colorScale" priority="2">
@@ -5802,11 +5809,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.390625" defaultRowHeight="36" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.64"/>
@@ -5870,48 +5877,48 @@
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="13" t="n">
         <v>256</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="13" t="n">
         <v>512</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="13" t="n">
         <v>1024</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="13" t="n">
         <v>2048</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="13" t="n">
         <v>4096</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="AMH3" s="13"/>
-      <c r="AMI3" s="13"/>
-      <c r="AMJ3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="AMH3" s="14"/>
+      <c r="AMI3" s="14"/>
+      <c r="AMJ3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
